--- a/database/industries/lastic/pekavir/product/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/product/quarterly.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9525D00A-9429-4914-B33B-01553F6D5D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,17 +575,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -601,7 +602,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +619,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -635,7 +636,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -650,7 +651,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -667,7 +668,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +685,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,7 +700,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -751,7 +752,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -790,7 +791,7 @@
         <v>7833</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -829,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -868,7 +869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -905,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -944,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -983,7 +984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>7833</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1035,7 +1036,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1050,7 +1051,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1065,7 +1066,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1117,7 +1118,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1147,16 +1148,17 @@
         <v>8322</v>
       </c>
       <c r="L22" s="9">
-        <v>7</v>
+        <v>7041</v>
       </c>
       <c r="M22" s="9">
-        <v>16429</v>
+        <f>16424-7041</f>
+        <v>9383</v>
       </c>
       <c r="N22" s="9">
         <v>7475</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>21</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
@@ -1416,16 +1418,16 @@
         <v>8326</v>
       </c>
       <c r="L29" s="15">
-        <v>7</v>
+        <v>7041</v>
       </c>
       <c r="M29" s="15">
-        <v>16429</v>
+        <v>9383</v>
       </c>
       <c r="N29" s="15">
         <v>7475</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1440,7 +1442,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1455,7 +1457,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1470,7 +1472,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1522,7 +1524,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>6567839</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
@@ -1600,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
@@ -1639,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>23</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>6567840</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1847,7 +1849,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1862,7 +1864,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1877,7 +1879,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1929,7 +1931,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>878640669</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>25</v>
       </c>
@@ -2007,7 +2009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>19</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
@@ -2124,7 +2126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>21</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>22</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2217,7 +2219,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2232,7 +2234,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2247,7 +2249,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2299,7 +2301,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>-5487113</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>25</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>18</v>
       </c>
@@ -2416,7 +2418,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>22</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>23</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>-5487114</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2546,7 +2548,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2561,7 +2563,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2576,7 +2578,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>33</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2628,7 +2630,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>15</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>1080726</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>25</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>18</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>20</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>22</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>23</v>
       </c>

--- a/database/industries/lastic/pekavir/product/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33802036-F139-403B-89AD-5CE70F3C9C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D060409B-AC7C-4A34-AD16-1287A238C20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="35">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,6 +64,9 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تایر</t>
   </si>
   <si>
@@ -101,6 +116,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -562,16 +580,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I76"/>
+  <dimension ref="B1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -580,8 +598,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,8 +615,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -604,8 +632,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -614,8 +647,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -626,8 +664,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -638,8 +681,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -648,8 +696,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -670,8 +723,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -680,172 +748,282 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
+      <c r="E10" s="9">
+        <v>7694</v>
       </c>
       <c r="F10" s="9">
+        <v>7606</v>
+      </c>
+      <c r="G10" s="9">
+        <v>7229</v>
+      </c>
+      <c r="H10" s="9">
+        <v>14524591</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9">
         <v>-21912094</v>
       </c>
-      <c r="G10" s="9">
+      <c r="K10" s="9">
         <v>8146</v>
       </c>
-      <c r="H10" s="9">
+      <c r="L10" s="9">
         <v>8405</v>
       </c>
-      <c r="I10" s="9">
+      <c r="M10" s="9">
         <v>7833</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N10" s="9">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11">
+        <v>22</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1193</v>
+      </c>
+      <c r="I11" s="11">
         <v>-1189</v>
       </c>
-      <c r="F11" s="11">
+      <c r="J11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11">
         <v>21942</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>7725</v>
+      </c>
+      <c r="F16" s="13">
+        <v>7628</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7230</v>
+      </c>
+      <c r="H16" s="13">
+        <v>14525784</v>
+      </c>
+      <c r="I16" s="13">
         <v>20753</v>
       </c>
-      <c r="F16" s="13">
+      <c r="J16" s="13">
         <v>-21912089</v>
       </c>
-      <c r="G16" s="13">
+      <c r="K16" s="13">
         <v>8146</v>
       </c>
-      <c r="H16" s="13">
+      <c r="L16" s="13">
         <v>8405</v>
       </c>
-      <c r="I16" s="13">
+      <c r="M16" s="13">
         <v>7833</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="13">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -854,8 +1032,13 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -864,8 +1047,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -874,10 +1062,15 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -896,8 +1089,23 @@
       <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -906,106 +1114,171 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
+      <c r="E22" s="9">
+        <v>197597</v>
       </c>
       <c r="F22" s="9">
+        <v>-181999</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6512</v>
+      </c>
+      <c r="H22" s="9">
+        <v>7951</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9">
         <v>29716</v>
       </c>
-      <c r="G22" s="9">
+      <c r="K22" s="9">
         <v>7</v>
       </c>
-      <c r="H22" s="9">
+      <c r="L22" s="9">
         <v>16429</v>
       </c>
-      <c r="I22" s="9">
+      <c r="M22" s="9">
         <v>7475</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N22" s="9">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>12</v>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>-27</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
+        <v>33</v>
+      </c>
+      <c r="F24" s="9">
+        <v>43</v>
+      </c>
+      <c r="G24" s="9">
+        <v>7</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2</v>
+      </c>
+      <c r="I24" s="9">
         <v>4</v>
       </c>
-      <c r="F24" s="9">
+      <c r="J24" s="9">
         <v>4</v>
       </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1015,8 +1288,8 @@
       <c r="F26" s="9">
         <v>0</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
+      <c r="G26" s="9">
+        <v>0</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
@@ -1024,78 +1297,138 @@
       <c r="I26" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9">
+      <c r="E28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9">
         <v>21394</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
+        <v>197630</v>
+      </c>
+      <c r="F29" s="15">
+        <v>-181956</v>
+      </c>
+      <c r="G29" s="15">
+        <v>6519</v>
+      </c>
+      <c r="H29" s="15">
+        <v>7925</v>
+      </c>
+      <c r="I29" s="15">
         <v>21398</v>
       </c>
-      <c r="F29" s="15">
+      <c r="J29" s="15">
         <v>29720</v>
       </c>
-      <c r="G29" s="15">
+      <c r="K29" s="15">
         <v>7</v>
       </c>
-      <c r="H29" s="15">
+      <c r="L29" s="15">
         <v>16429</v>
       </c>
-      <c r="I29" s="15">
+      <c r="M29" s="15">
         <v>7475</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N29" s="15">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1104,8 +1437,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1114,8 +1452,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1124,10 +1467,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1146,8 +1494,23 @@
       <c r="I33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1156,198 +1519,323 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
+      <c r="E35" s="9">
+        <v>2811093</v>
       </c>
       <c r="F35" s="9">
+        <v>4280006</v>
+      </c>
+      <c r="G35" s="9">
+        <v>4134589</v>
+      </c>
+      <c r="H35" s="9">
+        <v>5733016</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="9">
         <v>19891768</v>
       </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9">
         <v>5087108</v>
       </c>
-      <c r="H35" s="9">
+      <c r="L35" s="9">
         <v>6957518</v>
       </c>
-      <c r="I35" s="9">
+      <c r="M35" s="9">
         <v>6567839</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N35" s="9">
+        <v>8027245</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>12</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>-11860</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>8832</v>
+      </c>
+      <c r="F37" s="9">
+        <v>19960</v>
+      </c>
+      <c r="G37" s="9">
+        <v>3217</v>
+      </c>
+      <c r="H37" s="9">
+        <v>762</v>
+      </c>
+      <c r="I37" s="9">
         <v>2184</v>
       </c>
-      <c r="F37" s="9">
+      <c r="J37" s="9">
         <v>1809</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>-203</v>
+      </c>
+      <c r="I39" s="9">
         <v>203</v>
       </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="9">
+        <v>14428548</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>14428548</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
+        <v>2819925</v>
+      </c>
+      <c r="F42" s="15">
+        <v>4299966</v>
+      </c>
+      <c r="G42" s="15">
+        <v>4137806</v>
+      </c>
+      <c r="H42" s="15">
+        <v>5721715</v>
+      </c>
+      <c r="I42" s="15">
         <v>14430935</v>
       </c>
-      <c r="F42" s="15">
+      <c r="J42" s="15">
         <v>19893577</v>
       </c>
-      <c r="G42" s="15">
+      <c r="K42" s="15">
         <v>5087108</v>
       </c>
-      <c r="H42" s="15">
+      <c r="L42" s="15">
         <v>6957518</v>
       </c>
-      <c r="I42" s="15">
+      <c r="M42" s="15">
         <v>6567840</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N42" s="15">
+        <v>8027245</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1356,8 +1844,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1366,8 +1859,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1376,10 +1874,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1398,8 +1901,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1408,176 +1926,286 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9">
+        <v>14226395</v>
+      </c>
+      <c r="F48" s="9">
+        <v>-23516646</v>
+      </c>
+      <c r="G48" s="9">
+        <v>634918458</v>
+      </c>
+      <c r="H48" s="9">
+        <v>721026161</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="9">
+        <v>669395881</v>
+      </c>
+      <c r="K48" s="9">
+        <v>686797353854</v>
+      </c>
+      <c r="L48" s="9">
+        <v>423500617</v>
+      </c>
+      <c r="M48" s="9">
+        <v>878640669</v>
+      </c>
+      <c r="N48" s="9">
+        <v>933726300</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="9">
-        <v>669395881</v>
-      </c>
-      <c r="G48" s="9">
-        <v>686797353854</v>
-      </c>
-      <c r="H48" s="9">
-        <v>423500617</v>
-      </c>
-      <c r="I48" s="9">
-        <v>878640669</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="H49" s="11">
+        <v>433638026</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>267636364</v>
+      </c>
+      <c r="F50" s="9">
+        <v>464186047</v>
+      </c>
+      <c r="G50" s="9">
+        <v>459571429</v>
+      </c>
+      <c r="H50" s="9">
+        <v>482278481</v>
+      </c>
+      <c r="I50" s="9">
         <v>494117647</v>
       </c>
-      <c r="F50" s="9">
+      <c r="J50" s="9">
         <v>452250000</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="9">
+      <c r="E54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9">
         <v>674420305</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1586,8 +2214,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1596,8 +2229,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1606,10 +2244,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1628,8 +2271,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1638,85 +2296,135 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>12</v>
+      <c r="E60" s="9">
+        <v>-1762495</v>
       </c>
       <c r="F60" s="9">
+        <v>-2585669</v>
+      </c>
+      <c r="G60" s="9">
+        <v>-2706033</v>
+      </c>
+      <c r="H60" s="9">
+        <v>-3973297</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="9">
         <v>-14621235</v>
       </c>
-      <c r="G60" s="9">
+      <c r="K60" s="9">
         <v>-3989842</v>
       </c>
-      <c r="H60" s="9">
+      <c r="L60" s="9">
         <v>-6261866</v>
       </c>
-      <c r="I60" s="9">
+      <c r="M60" s="9">
         <v>-5487113</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N60" s="9">
+        <v>-6154017</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>12</v>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>11842</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
+        <v>-9643</v>
+      </c>
+      <c r="F62" s="9">
+        <v>-9473</v>
+      </c>
+      <c r="G62" s="9">
+        <v>-5293</v>
+      </c>
+      <c r="H62" s="9">
+        <v>2983</v>
+      </c>
+      <c r="I62" s="9">
         <v>-1190</v>
       </c>
-      <c r="F62" s="9">
+      <c r="J62" s="9">
         <v>-996</v>
       </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
+      <c r="K62" s="9">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
@@ -1725,8 +2433,8 @@
       <c r="F63" s="11">
         <v>0</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>12</v>
+      <c r="G63" s="11">
+        <v>0</v>
       </c>
       <c r="H63" s="11">
         <v>0</v>
@@ -1734,54 +2442,99 @@
       <c r="I63" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="11">
+        <v>0</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C64" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="9">
+        <v>-10207518</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9">
-        <v>-10207518</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
+        <v>-1772138</v>
+      </c>
+      <c r="F65" s="15">
+        <v>-2595142</v>
+      </c>
+      <c r="G65" s="15">
+        <v>-2711326</v>
+      </c>
+      <c r="H65" s="15">
+        <v>-3958472</v>
+      </c>
+      <c r="I65" s="15">
         <v>-10208708</v>
       </c>
-      <c r="F65" s="15">
+      <c r="J65" s="15">
         <v>-14622231</v>
       </c>
-      <c r="G65" s="15">
+      <c r="K65" s="15">
         <v>-3989842</v>
       </c>
-      <c r="H65" s="15">
+      <c r="L65" s="15">
         <v>-6261866</v>
       </c>
-      <c r="I65" s="15">
+      <c r="M65" s="15">
         <v>-5487114</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N65" s="15">
+        <v>-6154017</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1790,8 +2543,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1800,8 +2558,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1810,10 +2573,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1832,8 +2600,23 @@
       <c r="I69" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1842,147 +2625,242 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>12</v>
+      <c r="E71" s="9">
+        <v>1048598</v>
       </c>
       <c r="F71" s="9">
+        <v>1694337</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1428556</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1759719</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="9">
         <v>5270533</v>
       </c>
-      <c r="G71" s="9">
+      <c r="K71" s="9">
         <v>1097266</v>
       </c>
-      <c r="H71" s="9">
+      <c r="L71" s="9">
         <v>695652</v>
       </c>
-      <c r="I71" s="9">
+      <c r="M71" s="9">
         <v>1080726</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N71" s="9">
+        <v>1873228</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>12</v>
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <v>-18</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>-811</v>
+      </c>
+      <c r="F73" s="9">
+        <v>10487</v>
+      </c>
+      <c r="G73" s="9">
+        <v>-2076</v>
+      </c>
+      <c r="H73" s="9">
+        <v>3745</v>
+      </c>
+      <c r="I73" s="9">
         <v>994</v>
       </c>
-      <c r="F73" s="9">
+      <c r="J73" s="9">
         <v>813</v>
       </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>-203</v>
+      </c>
+      <c r="I74" s="11">
         <v>203</v>
       </c>
-      <c r="F74" s="11">
-        <v>0</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="11">
+        <v>0</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="11">
+        <v>0</v>
+      </c>
+      <c r="M74" s="11">
+        <v>0</v>
+      </c>
+      <c r="N74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="9">
+        <v>4221030</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9">
-        <v>4221030</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
+        <v>1047787</v>
+      </c>
+      <c r="F76" s="15">
+        <v>1704824</v>
+      </c>
+      <c r="G76" s="15">
+        <v>1426480</v>
+      </c>
+      <c r="H76" s="15">
+        <v>1763243</v>
+      </c>
+      <c r="I76" s="15">
         <v>4222227</v>
       </c>
-      <c r="F76" s="15">
+      <c r="J76" s="15">
         <v>5271346</v>
       </c>
-      <c r="G76" s="15">
+      <c r="K76" s="15">
         <v>1097266</v>
       </c>
-      <c r="H76" s="15">
+      <c r="L76" s="15">
         <v>695652</v>
       </c>
-      <c r="I76" s="15">
+      <c r="M76" s="15">
         <v>1080726</v>
+      </c>
+      <c r="N76" s="15">
+        <v>1873228</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekavir/product/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D060409B-AC7C-4A34-AD16-1287A238C20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A1C74-F8A1-4392-A04F-D85B03229F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="35">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>تایر</t>
@@ -584,12 +584,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -604,7 +604,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -653,7 +653,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -687,7 +687,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -702,7 +702,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -739,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -754,7 +754,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -763,37 +763,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>7694</v>
+        <v>7606</v>
       </c>
       <c r="F10" s="9">
-        <v>7606</v>
+        <v>7229</v>
       </c>
       <c r="G10" s="9">
-        <v>7229</v>
-      </c>
-      <c r="H10" s="9">
         <v>14524591</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9">
+        <v>-21912094</v>
       </c>
       <c r="J10" s="9">
-        <v>-21912094</v>
+        <v>8146</v>
       </c>
       <c r="K10" s="9">
-        <v>8146</v>
+        <v>8405</v>
       </c>
       <c r="L10" s="9">
-        <v>8405</v>
+        <v>7833</v>
       </c>
       <c r="M10" s="9">
-        <v>7833</v>
+        <v>8052</v>
       </c>
       <c r="N10" s="9">
-        <v>8052</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -802,22 +802,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F11" s="11">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G11" s="11">
-        <v>1</v>
+        <v>1193</v>
       </c>
       <c r="H11" s="11">
-        <v>1193</v>
+        <v>-1189</v>
       </c>
       <c r="I11" s="11">
-        <v>-1189</v>
+        <v>5</v>
       </c>
       <c r="J11" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="11">
         <v>0</v>
@@ -828,11 +828,11 @@
       <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -871,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -886,17 +886,17 @@
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>17</v>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -964,12 +964,12 @@
       <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="H15" s="11">
         <v>21942</v>
       </c>
+      <c r="I15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J15" s="11" t="s">
         <v>17</v>
       </c>
@@ -986,44 +986,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>7725</v>
+        <v>7628</v>
       </c>
       <c r="F16" s="13">
-        <v>7628</v>
+        <v>7230</v>
       </c>
       <c r="G16" s="13">
-        <v>7230</v>
+        <v>14525784</v>
       </c>
       <c r="H16" s="13">
-        <v>14525784</v>
+        <v>20753</v>
       </c>
       <c r="I16" s="13">
-        <v>20753</v>
+        <v>-21912089</v>
       </c>
       <c r="J16" s="13">
-        <v>-21912089</v>
+        <v>8146</v>
       </c>
       <c r="K16" s="13">
-        <v>8146</v>
+        <v>8405</v>
       </c>
       <c r="L16" s="13">
-        <v>8405</v>
+        <v>7833</v>
       </c>
       <c r="M16" s="13">
-        <v>7833</v>
+        <v>8052</v>
       </c>
       <c r="N16" s="13">
-        <v>8052</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1038,7 +1038,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1053,7 +1053,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1068,7 +1068,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1120,7 +1120,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1129,37 +1129,37 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>197597</v>
+        <v>-181999</v>
       </c>
       <c r="F22" s="9">
-        <v>-181999</v>
+        <v>6512</v>
       </c>
       <c r="G22" s="9">
-        <v>6512</v>
-      </c>
-      <c r="H22" s="9">
         <v>7951</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>17</v>
+      <c r="H22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9">
+        <v>29716</v>
       </c>
       <c r="J22" s="9">
-        <v>29716</v>
+        <v>7</v>
       </c>
       <c r="K22" s="9">
-        <v>7</v>
+        <v>16429</v>
       </c>
       <c r="L22" s="9">
-        <v>16429</v>
+        <v>7475</v>
       </c>
       <c r="M22" s="9">
-        <v>7475</v>
+        <v>8597</v>
       </c>
       <c r="N22" s="9">
-        <v>8597</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1174,11 +1174,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
         <v>-27</v>
       </c>
+      <c r="H23" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I23" s="11" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
@@ -1207,22 +1207,22 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F24" s="9">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G24" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H24" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="9">
         <v>4</v>
       </c>
       <c r="J24" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="9">
         <v>0</v>
@@ -1233,11 +1233,11 @@
       <c r="M24" s="9">
         <v>0</v>
       </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
@@ -1297,11 +1297,11 @@
       <c r="I26" s="9">
         <v>0</v>
       </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>17</v>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>21</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
@@ -1369,12 +1369,12 @@
       <c r="G28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="H28" s="9">
         <v>21394</v>
       </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J28" s="9" t="s">
         <v>17</v>
       </c>
@@ -1391,44 +1391,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>197630</v>
+        <v>-181956</v>
       </c>
       <c r="F29" s="15">
-        <v>-181956</v>
+        <v>6519</v>
       </c>
       <c r="G29" s="15">
-        <v>6519</v>
+        <v>7925</v>
       </c>
       <c r="H29" s="15">
-        <v>7925</v>
+        <v>21398</v>
       </c>
       <c r="I29" s="15">
-        <v>21398</v>
+        <v>29720</v>
       </c>
       <c r="J29" s="15">
-        <v>29720</v>
+        <v>7</v>
       </c>
       <c r="K29" s="15">
-        <v>7</v>
+        <v>16429</v>
       </c>
       <c r="L29" s="15">
-        <v>16429</v>
+        <v>7475</v>
       </c>
       <c r="M29" s="15">
-        <v>7475</v>
+        <v>8597</v>
       </c>
       <c r="N29" s="15">
-        <v>8597</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1473,7 +1473,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>27</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1525,7 +1525,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
@@ -1534,37 +1534,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>2811093</v>
+        <v>4280006</v>
       </c>
       <c r="F35" s="9">
-        <v>4280006</v>
+        <v>4134589</v>
       </c>
       <c r="G35" s="9">
-        <v>4134589</v>
-      </c>
-      <c r="H35" s="9">
         <v>5733016</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>17</v>
+      <c r="H35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="9">
+        <v>19891768</v>
       </c>
       <c r="J35" s="9">
-        <v>19891768</v>
+        <v>5087108</v>
       </c>
       <c r="K35" s="9">
-        <v>5087108</v>
+        <v>6957518</v>
       </c>
       <c r="L35" s="9">
-        <v>6957518</v>
+        <v>6567839</v>
       </c>
       <c r="M35" s="9">
-        <v>6567839</v>
+        <v>8027245</v>
       </c>
       <c r="N35" s="9">
-        <v>8027245</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7803958</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
@@ -1579,11 +1579,11 @@
         <v>0</v>
       </c>
       <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
         <v>-11860</v>
       </c>
+      <c r="H36" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I36" s="11" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
@@ -1612,37 +1612,37 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>8832</v>
+        <v>19960</v>
       </c>
       <c r="F37" s="9">
-        <v>19960</v>
+        <v>3217</v>
       </c>
       <c r="G37" s="9">
-        <v>3217</v>
+        <v>762</v>
       </c>
       <c r="H37" s="9">
-        <v>762</v>
+        <v>2184</v>
       </c>
       <c r="I37" s="9">
-        <v>2184</v>
+        <v>1809</v>
       </c>
       <c r="J37" s="9">
-        <v>1809</v>
+        <v>0</v>
       </c>
       <c r="K37" s="9">
         <v>0</v>
       </c>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="9">
-        <v>1</v>
-      </c>
-      <c r="N37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>20</v>
       </c>
@@ -1696,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="G39" s="9">
-        <v>0</v>
+        <v>-203</v>
       </c>
       <c r="H39" s="9">
-        <v>-203</v>
+        <v>203</v>
       </c>
       <c r="I39" s="9">
-        <v>203</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>21</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
@@ -1776,12 +1776,12 @@
       <c r="G41" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="9">
+      <c r="H41" s="9">
         <v>14428548</v>
       </c>
+      <c r="I41" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J41" s="9" t="s">
         <v>17</v>
       </c>
@@ -1798,44 +1798,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>2819925</v>
+        <v>4299966</v>
       </c>
       <c r="F42" s="15">
-        <v>4299966</v>
+        <v>4137806</v>
       </c>
       <c r="G42" s="15">
-        <v>4137806</v>
+        <v>5721715</v>
       </c>
       <c r="H42" s="15">
-        <v>5721715</v>
+        <v>14430935</v>
       </c>
       <c r="I42" s="15">
-        <v>14430935</v>
+        <v>19893577</v>
       </c>
       <c r="J42" s="15">
-        <v>19893577</v>
+        <v>5087108</v>
       </c>
       <c r="K42" s="15">
-        <v>5087108</v>
+        <v>6957518</v>
       </c>
       <c r="L42" s="15">
-        <v>6957518</v>
+        <v>6567840</v>
       </c>
       <c r="M42" s="15">
-        <v>6567840</v>
+        <v>8027245</v>
       </c>
       <c r="N42" s="15">
-        <v>8027245</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7803958</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1850,7 +1850,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1880,7 +1880,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>29</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1941,37 +1941,37 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>14226395</v>
+        <v>-23516646</v>
       </c>
       <c r="F48" s="9">
-        <v>-23516646</v>
+        <v>634918458</v>
       </c>
       <c r="G48" s="9">
-        <v>634918458</v>
-      </c>
-      <c r="H48" s="9">
         <v>721026161</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>17</v>
+      <c r="H48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="9">
+        <v>669395881</v>
       </c>
       <c r="J48" s="9">
-        <v>669395881</v>
+        <v>686797353854</v>
       </c>
       <c r="K48" s="9">
-        <v>686797353854</v>
+        <v>423500617</v>
       </c>
       <c r="L48" s="9">
-        <v>423500617</v>
+        <v>878640669</v>
       </c>
       <c r="M48" s="9">
-        <v>878640669</v>
+        <v>933726300</v>
       </c>
       <c r="N48" s="9">
-        <v>933726300</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1016411672</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>25</v>
       </c>
@@ -1985,12 +1985,12 @@
       <c r="F49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="11">
+      <c r="G49" s="11">
         <v>433638026</v>
       </c>
+      <c r="H49" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I49" s="11" t="s">
         <v>17</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -2019,23 +2019,23 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>267636364</v>
+        <v>464186047</v>
       </c>
       <c r="F50" s="9">
-        <v>464186047</v>
+        <v>459571429</v>
       </c>
       <c r="G50" s="9">
-        <v>459571429</v>
+        <v>482278481</v>
       </c>
       <c r="H50" s="9">
-        <v>482278481</v>
+        <v>494117647</v>
       </c>
       <c r="I50" s="9">
-        <v>494117647</v>
-      </c>
-      <c r="J50" s="9">
         <v>452250000</v>
       </c>
+      <c r="J50" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K50" s="9" t="s">
         <v>17</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>19</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>22</v>
       </c>
@@ -2183,12 +2183,12 @@
       <c r="G54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="9">
+      <c r="H54" s="9">
         <v>674420305</v>
       </c>
+      <c r="I54" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J54" s="9" t="s">
         <v>17</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2220,7 +2220,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2235,7 +2235,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2250,7 +2250,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>33</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2302,7 +2302,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2311,37 +2311,37 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>-1762495</v>
+        <v>-2585669</v>
       </c>
       <c r="F60" s="9">
-        <v>-2585669</v>
+        <v>-2706033</v>
       </c>
       <c r="G60" s="9">
-        <v>-2706033</v>
-      </c>
-      <c r="H60" s="9">
         <v>-3973297</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>17</v>
+      <c r="H60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="9">
+        <v>-14621235</v>
       </c>
       <c r="J60" s="9">
-        <v>-14621235</v>
+        <v>-3989842</v>
       </c>
       <c r="K60" s="9">
-        <v>-3989842</v>
+        <v>-6261866</v>
       </c>
       <c r="L60" s="9">
-        <v>-6261866</v>
+        <v>-5487113</v>
       </c>
       <c r="M60" s="9">
-        <v>-5487113</v>
+        <v>-6155432</v>
       </c>
       <c r="N60" s="9">
-        <v>-6154017</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5698607</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>25</v>
       </c>
@@ -2356,11 +2356,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11">
         <v>11842</v>
       </c>
+      <c r="H61" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I61" s="11" t="s">
         <v>17</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>18</v>
       </c>
@@ -2389,37 +2389,37 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>-9643</v>
+        <v>-9473</v>
       </c>
       <c r="F62" s="9">
-        <v>-9473</v>
+        <v>-5293</v>
       </c>
       <c r="G62" s="9">
-        <v>-5293</v>
+        <v>2983</v>
       </c>
       <c r="H62" s="9">
-        <v>2983</v>
+        <v>-1190</v>
       </c>
       <c r="I62" s="9">
-        <v>-1190</v>
+        <v>-996</v>
       </c>
       <c r="J62" s="9">
-        <v>-996</v>
+        <v>0</v>
       </c>
       <c r="K62" s="9">
         <v>0</v>
       </c>
       <c r="L62" s="9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M62" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N62" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2442,11 +2442,11 @@
       <c r="I63" s="11">
         <v>0</v>
       </c>
-      <c r="J63" s="11">
-        <v>0</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>17</v>
+      <c r="J63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0</v>
       </c>
       <c r="L63" s="11">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>22</v>
       </c>
@@ -2475,12 +2475,12 @@
       <c r="G64" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="9">
+      <c r="H64" s="9">
         <v>-10207518</v>
       </c>
+      <c r="I64" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J64" s="9" t="s">
         <v>17</v>
       </c>
@@ -2497,44 +2497,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>-1772138</v>
+        <v>-2595142</v>
       </c>
       <c r="F65" s="15">
-        <v>-2595142</v>
+        <v>-2711326</v>
       </c>
       <c r="G65" s="15">
-        <v>-2711326</v>
+        <v>-3958472</v>
       </c>
       <c r="H65" s="15">
-        <v>-3958472</v>
+        <v>-10208708</v>
       </c>
       <c r="I65" s="15">
-        <v>-10208708</v>
+        <v>-14622231</v>
       </c>
       <c r="J65" s="15">
-        <v>-14622231</v>
+        <v>-3989842</v>
       </c>
       <c r="K65" s="15">
-        <v>-3989842</v>
+        <v>-6261866</v>
       </c>
       <c r="L65" s="15">
-        <v>-6261866</v>
+        <v>-5487114</v>
       </c>
       <c r="M65" s="15">
-        <v>-5487114</v>
+        <v>-6155432</v>
       </c>
       <c r="N65" s="15">
-        <v>-6154017</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5698607</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2549,7 +2549,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2564,7 +2564,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2579,7 +2579,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>34</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2631,7 +2631,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>15</v>
       </c>
@@ -2640,37 +2640,37 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>1048598</v>
+        <v>1694337</v>
       </c>
       <c r="F71" s="9">
-        <v>1694337</v>
+        <v>1428556</v>
       </c>
       <c r="G71" s="9">
-        <v>1428556</v>
-      </c>
-      <c r="H71" s="9">
         <v>1759719</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>17</v>
+      <c r="H71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="9">
+        <v>5270533</v>
       </c>
       <c r="J71" s="9">
-        <v>5270533</v>
+        <v>1097266</v>
       </c>
       <c r="K71" s="9">
-        <v>1097266</v>
+        <v>695652</v>
       </c>
       <c r="L71" s="9">
-        <v>695652</v>
+        <v>1080726</v>
       </c>
       <c r="M71" s="9">
-        <v>1080726</v>
+        <v>1871813</v>
       </c>
       <c r="N71" s="9">
-        <v>1873228</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2105351</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>25</v>
       </c>
@@ -2685,11 +2685,11 @@
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <v>0</v>
-      </c>
-      <c r="H72" s="11">
         <v>-18</v>
       </c>
+      <c r="H72" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I72" s="11" t="s">
         <v>17</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>18</v>
       </c>
@@ -2718,22 +2718,22 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>-811</v>
+        <v>10487</v>
       </c>
       <c r="F73" s="9">
-        <v>10487</v>
+        <v>-2076</v>
       </c>
       <c r="G73" s="9">
-        <v>-2076</v>
+        <v>3745</v>
       </c>
       <c r="H73" s="9">
-        <v>3745</v>
+        <v>994</v>
       </c>
       <c r="I73" s="9">
-        <v>994</v>
+        <v>813</v>
       </c>
       <c r="J73" s="9">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="K73" s="9">
         <v>0</v>
@@ -2744,11 +2744,11 @@
       <c r="M73" s="9">
         <v>0</v>
       </c>
-      <c r="N73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>20</v>
       </c>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="G74" s="11">
-        <v>0</v>
+        <v>-203</v>
       </c>
       <c r="H74" s="11">
-        <v>-203</v>
+        <v>203</v>
       </c>
       <c r="I74" s="11">
-        <v>203</v>
-      </c>
-      <c r="J74" s="11">
-        <v>0</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0</v>
       </c>
       <c r="L74" s="11">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>22</v>
       </c>
@@ -2804,12 +2804,12 @@
       <c r="G75" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="9">
+      <c r="H75" s="9">
         <v>4221030</v>
       </c>
+      <c r="I75" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J75" s="9" t="s">
         <v>17</v>
       </c>
@@ -2826,41 +2826,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
-        <v>1047787</v>
+        <v>1704824</v>
       </c>
       <c r="F76" s="15">
-        <v>1704824</v>
+        <v>1426480</v>
       </c>
       <c r="G76" s="15">
-        <v>1426480</v>
+        <v>1763243</v>
       </c>
       <c r="H76" s="15">
-        <v>1763243</v>
+        <v>4222227</v>
       </c>
       <c r="I76" s="15">
-        <v>4222227</v>
+        <v>5271346</v>
       </c>
       <c r="J76" s="15">
-        <v>5271346</v>
+        <v>1097266</v>
       </c>
       <c r="K76" s="15">
-        <v>1097266</v>
+        <v>695652</v>
       </c>
       <c r="L76" s="15">
-        <v>695652</v>
+        <v>1080726</v>
       </c>
       <c r="M76" s="15">
-        <v>1080726</v>
+        <v>1871813</v>
       </c>
       <c r="N76" s="15">
-        <v>1873228</v>
+        <v>2105351</v>
       </c>
     </row>
   </sheetData>
